--- a/jyx2/Assets/Mods/SAMPLE/Configs/战斗.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/战斗.xlsx
@@ -36,10 +36,6 @@
     <t>音乐</t>
   </si>
   <si>
-    <t>斗胡斐</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Exp</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -88,7 +84,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Jyx2Battle_0</t>
+    <t>斗何云多</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_Battle</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -96,7 +96,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -111,6 +111,13 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -136,11 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -424,45 +432,45 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
     <col min="6" max="6" width="9.140625" customWidth="1"/>
     <col min="8" max="8" width="91" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
       <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -482,21 +490,21 @@
         <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
+      <c r="B4" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>

--- a/jyx2/Assets/Mods/SAMPLE/Configs/战斗.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/战斗.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>编号</t>
   </si>
@@ -88,7 +88,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>斗刘灯剑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>00_Battle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>01_Battle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -429,16 +441,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="13.42578125" customWidth="1"/>
     <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" customWidth="1"/>
     <col min="8" max="8" width="91" style="2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -507,7 +520,7 @@
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4">
         <v>150</v>
@@ -523,6 +536,32 @@
       </c>
       <c r="H4" s="2">
         <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>500</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>-1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/jyx2/Assets/Mods/SAMPLE/Configs/战斗.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/战斗.xlsx
@@ -96,11 +96,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>01_Battle</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_Battle</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -444,7 +444,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -546,7 +546,7 @@
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5">
         <v>500</v>
@@ -561,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/jyx2/Assets/Mods/SAMPLE/Configs/战斗.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/战斗.xlsx
@@ -1,25 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jynew\jyx2\Assets\Mods\SAMPLE\Configs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView windowWidth="12562" windowHeight="12307"/>
   </bookViews>
   <sheets>
     <sheet name="战斗数据" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+  <si>
+    <t>Jyx2Configs.Jyx2ConfigBattle</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>MapScene</t>
+  </si>
+  <si>
+    <t>Exp</t>
+  </si>
+  <si>
+    <t>Music</t>
+  </si>
+  <si>
+    <t>TeamMates</t>
+  </si>
+  <si>
+    <t>AutoTeamMates</t>
+  </si>
+  <si>
+    <t>Enemies</t>
+  </si>
   <si>
     <t>编号</t>
   </si>
@@ -36,114 +58,406 @@
     <t>音乐</t>
   </si>
   <si>
-    <t>Exp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Music</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MapScene</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jyx2Configs.Jyx2ConfigBattle</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TeamMates</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>队友</t>
   </si>
   <si>
     <t>自动队友</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AutoTeamMates</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enemies</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>敌人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>队友</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>斗何云多</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_Battle</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
   <si>
     <t>斗刘灯剑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>00_Battle</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>00_Battle</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -151,33 +465,319 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FF000000"/>
+      <color rgb="00000000"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -435,84 +1035,84 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.14159292035398" defaultRowHeight="12.75" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" customWidth="1"/>
-    <col min="8" max="8" width="91" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.4247787610619" customWidth="1"/>
+    <col min="6" max="6" width="9.14159292035398" customWidth="1"/>
+    <col min="7" max="7" width="10.5663716814159" customWidth="1"/>
+    <col min="8" max="8" width="91" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>0</v>
       </c>
@@ -520,7 +1120,7 @@
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4">
         <v>150</v>
@@ -534,19 +1134,19 @@
       <c r="G4">
         <v>-1</v>
       </c>
-      <c r="H4" s="2">
-        <v>1</v>
+      <c r="H4" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
         <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
       </c>
       <c r="D5">
         <v>500</v>
@@ -560,14 +1160,13 @@
       <c r="G5">
         <v>0</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>20</v>
+      <c r="H5" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
 </worksheet>
 </file>
--- a/jyx2/Assets/Mods/SAMPLE/Configs/战斗.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/战斗.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>Jyx2Configs.Jyx2ConfigBattle</t>
   </si>
@@ -80,6 +80,18 @@
   </si>
   <si>
     <t>20</t>
+  </si>
+  <si>
+    <t>斗野狼</t>
+  </si>
+  <si>
+    <t>01_Battle</t>
+  </si>
+  <si>
+    <t>140,140,140,140,140</t>
+  </si>
+  <si>
+    <t>140,140,140,140,140,140,140,140,140,140</t>
   </si>
 </sst>
 </file>
@@ -87,10 +99,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -112,28 +124,35 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -142,45 +161,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,7 +184,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,7 +208,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,29 +229,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -249,6 +238,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -256,10 +268,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -272,19 +284,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,7 +404,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,151 +452,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,6 +475,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -477,15 +498,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,11 +517,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,6 +552,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -548,166 +575,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1041,13 +1053,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14159292035398" defaultRowHeight="12.75" outlineLevelRow="4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.14159292035398" defaultRowHeight="12.75" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
     <col min="3" max="3" width="13.4247787610619" customWidth="1"/>
     <col min="6" max="6" width="9.14159292035398" customWidth="1"/>
@@ -1114,7 +1126,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>17</v>
@@ -1140,7 +1152,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>20</v>
@@ -1162,6 +1174,84 @@
       </c>
       <c r="H5" s="1" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>140</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6">
+        <v>1000</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>-1</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>141</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7">
+        <v>1000</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>-1</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>142</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8">
+        <v>2000</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>-1</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/jyx2/Assets/Mods/SAMPLE/Configs/战斗.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/战斗.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jynew\jyx2\Assets\Mods\SAMPLE\Configs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12555" windowHeight="12300"/>
+    <workbookView windowWidth="12562" windowHeight="12307"/>
   </bookViews>
   <sheets>
     <sheet name="战斗数据" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>Jyx2Configs.Jyx2ConfigBattle</t>
   </si>
@@ -87,6 +82,12 @@
     <t>20</t>
   </si>
   <si>
+    <t>斗萨擎苍</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
     <t>斗野狼</t>
   </si>
   <si>
@@ -94,18 +95,22 @@
   </si>
   <si>
     <t>140,141,142,143,144</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>140,141,142,143,144,145,146,147,148,149</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -116,37 +121,367 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -154,9 +489,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -166,22 +743,66 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FF000000"/>
+      <color rgb="00000000"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -439,32 +1060,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.14159292035398" defaultRowHeight="12.75" outlineLevelCol="7"/>
   <cols>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.4247787610619" customWidth="1"/>
+    <col min="6" max="6" width="9.14159292035398" customWidth="1"/>
+    <col min="7" max="7" width="10.5663716814159" customWidth="1"/>
     <col min="8" max="8" width="91" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -490,7 +1111,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -516,7 +1137,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>10</v>
       </c>
@@ -542,7 +1163,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>20</v>
       </c>
@@ -568,15 +1189,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6">
-        <v>140</v>
-      </c>
-      <c r="B6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D6">
         <v>1000</v>
@@ -590,19 +1211,19 @@
       <c r="G6">
         <v>-1</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>140</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>141</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7">
         <v>1000</v>
@@ -617,21 +1238,21 @@
         <v>-1</v>
       </c>
       <c r="H7" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>141</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>142</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E8">
         <v>5</v>
@@ -643,13 +1264,38 @@
         <v>-1</v>
       </c>
       <c r="H8" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>142</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
         <v>25</v>
+      </c>
+      <c r="D9">
+        <v>2000</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>-1</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
+  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
 </worksheet>
 </file>
--- a/jyx2/Assets/Mods/SAMPLE/Configs/战斗.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/战斗.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>Jyx2Configs.Jyx2ConfigBattle</t>
   </si>
@@ -105,7 +105,30 @@
     <t>140,141,142,143,144,145,146,147,148,149</t>
   </si>
   <si>
+    <t>斗王远</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>02_Battle</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>03_Battle</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -113,7 +136,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -143,6 +166,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -164,7 +194,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -172,6 +202,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -452,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -583,7 +614,7 @@
         <v>22</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6">
         <v>1000</v>
@@ -603,13 +634,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>140</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
+        <v>60</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="D7">
         <v>1000</v>
@@ -624,12 +655,12 @@
         <v>-1</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>24</v>
@@ -655,7 +686,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>24</v>
@@ -664,7 +695,7 @@
         <v>25</v>
       </c>
       <c r="D9">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E9">
         <v>5</v>
@@ -676,6 +707,32 @@
         <v>-1</v>
       </c>
       <c r="H9" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>142</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10">
+        <v>2000</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>-1</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>27</v>
       </c>
     </row>

--- a/jyx2/Assets/Mods/SAMPLE/Configs/战斗.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/战斗.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jynew\jyx2\Assets\Mods\SAMPLE\Configs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12555" windowHeight="12300"/>
+    <workbookView windowWidth="16200" windowHeight="25005"/>
   </bookViews>
   <sheets>
     <sheet name="战斗数据" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
   <si>
     <t>Jyx2Configs.Jyx2ConfigBattle</t>
   </si>
@@ -90,34 +85,25 @@
     <t>斗萨擎苍</t>
   </si>
   <si>
+    <t>02_Battle</t>
+  </si>
+  <si>
     <t>40</t>
   </si>
   <si>
-    <t>斗野狼</t>
-  </si>
-  <si>
-    <t>01_Battle</t>
-  </si>
-  <si>
-    <t>140,141,142,143,144</t>
-  </si>
-  <si>
-    <t>140,141,142,143,144,145,146,147,148,149</t>
-  </si>
-  <si>
     <t>斗王远</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>02_Battle</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>03_Battle</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>6</t>
     </r>
     <r>
@@ -125,18 +111,53 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>0</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>斗寿眉大师</t>
+  </si>
+  <si>
+    <t>04_Battle</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>斗牛不三</t>
+  </si>
+  <si>
+    <t>05_Battle</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>斗野狼</t>
+  </si>
+  <si>
+    <t>01_Battle</t>
+  </si>
+  <si>
+    <t>140,141,142,143,144</t>
+  </si>
+  <si>
+    <t>140,141,142,143,144,145,146,147,148,149</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -159,30 +180,361 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -190,9 +542,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -200,26 +794,70 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FF000000"/>
+      <color rgb="00000000"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -477,32 +1115,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.14159292035398" defaultRowHeight="12.75" outlineLevelCol="7"/>
   <cols>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.4247787610619" customWidth="1"/>
+    <col min="6" max="6" width="9.14159292035398" customWidth="1"/>
+    <col min="7" max="7" width="10.5663716814159" customWidth="1"/>
     <col min="8" max="8" width="91" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -528,7 +1166,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -554,7 +1192,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>10</v>
       </c>
@@ -580,7 +1218,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>20</v>
       </c>
@@ -606,15 +1244,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>40</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>29</v>
+      <c r="C6" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="D6">
         <v>1000</v>
@@ -629,18 +1267,18 @@
         <v>-1</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>60</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>30</v>
+      <c r="B7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="D7">
         <v>1000</v>
@@ -654,19 +1292,19 @@
       <c r="G7">
         <v>-1</v>
       </c>
-      <c r="H7" s="5" t="s">
-        <v>31</v>
+      <c r="H7" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8">
-        <v>140</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
+        <v>30</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="D8">
         <v>1000</v>
@@ -680,19 +1318,19 @@
       <c r="G8">
         <v>-1</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>26</v>
+      <c r="H8" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9">
-        <v>141</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
+        <v>90</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="D9">
         <v>1000</v>
@@ -706,22 +1344,22 @@
       <c r="G9">
         <v>-1</v>
       </c>
-      <c r="H9" s="5" t="s">
-        <v>26</v>
+      <c r="H9" s="7" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D10">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E10">
         <v>5</v>
@@ -732,14 +1370,65 @@
       <c r="G10">
         <v>-1</v>
       </c>
-      <c r="H10" s="5" t="s">
-        <v>27</v>
+      <c r="H10" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>141</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11">
+        <v>1000</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>-1</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>142</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12">
+        <v>2000</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>-1</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
 </worksheet>
 </file>
--- a/jyx2/Assets/Mods/SAMPLE/Configs/战斗.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/战斗.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jynew\jyx2\Assets\Mods\SAMPLE\Configs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="25005"/>
+    <workbookView windowWidth="16200" windowHeight="25005"/>
   </bookViews>
   <sheets>
     <sheet name="战斗数据" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
   <si>
     <t>Jyx2Configs.Jyx2ConfigBattle</t>
   </si>
@@ -87,16 +82,25 @@
     <t>20</t>
   </si>
   <si>
+    <t>斗寿眉大师</t>
+  </si>
+  <si>
+    <t>04_Battle</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
     <t>斗萨擎苍</t>
   </si>
   <si>
+    <t>02_Battle</t>
+  </si>
+  <si>
     <t>40</t>
   </si>
   <si>
-    <t>斗王远</t>
-  </si>
-  <si>
-    <t>03_Battle</t>
+    <t>双飞练武</t>
   </si>
   <si>
     <r>
@@ -104,7 +108,33 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1,42</t>
+    </r>
+  </si>
+  <si>
+    <t>斗王远</t>
+  </si>
+  <si>
+    <t>03_Battle</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
       </rPr>
       <t>6</t>
     </r>
@@ -113,19 +143,19 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>0</t>
     </r>
   </si>
   <si>
-    <t>斗寿眉大师</t>
-  </si>
-  <si>
-    <t>04_Battle</t>
-  </si>
-  <si>
-    <t>31</t>
+    <t>最终一战</t>
+  </si>
+  <si>
+    <t>06_Battle</t>
+  </si>
+  <si>
+    <t>61</t>
   </si>
   <si>
     <t>斗牛不三</t>
@@ -147,52 +177,19 @@
   </si>
   <si>
     <t>140,141,142,143,144,145,146,147,148,149</t>
-  </si>
-  <si>
-    <t>双飞练武</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>02_Battle</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>02_Battle</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1,42</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>06_Battle</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>61</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最终一战</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -203,51 +200,367 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -255,37 +568,321 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FF000000"/>
+      <color rgb="00000000"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -543,32 +1140,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.14159292035398" defaultRowHeight="12.75" outlineLevelCol="7"/>
   <cols>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.4247787610619" customWidth="1"/>
+    <col min="6" max="6" width="9.14159292035398" customWidth="1"/>
+    <col min="7" max="7" width="10.5663716814159" customWidth="1"/>
     <col min="8" max="8" width="91" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -594,7 +1191,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -620,7 +1217,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>10</v>
       </c>
@@ -631,7 +1228,7 @@
         <v>18</v>
       </c>
       <c r="D4">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="E4">
         <v>5</v>
@@ -646,7 +1243,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>20</v>
       </c>
@@ -657,7 +1254,7 @@
         <v>18</v>
       </c>
       <c r="D5">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E5">
         <v>5</v>
@@ -672,18 +1269,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>30</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>27</v>
+      <c r="B6" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D6">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -694,22 +1291,22 @@
       <c r="G6">
         <v>-1</v>
       </c>
-      <c r="H6" s="7" t="s">
-        <v>29</v>
+      <c r="H6" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>40</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D7">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="E7">
         <v>5</v>
@@ -721,21 +1318,21 @@
         <v>-1</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>41</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>37</v>
+      <c r="B8" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D8">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="E8">
         <v>5</v>
@@ -746,22 +1343,22 @@
       <c r="G8">
         <v>-1</v>
       </c>
-      <c r="H8" s="7" t="s">
-        <v>40</v>
+      <c r="H8" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>60</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>24</v>
+      <c r="B9" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D9">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="E9">
         <v>5</v>
@@ -772,22 +1369,22 @@
       <c r="G9">
         <v>-1</v>
       </c>
-      <c r="H9" s="7" t="s">
-        <v>26</v>
+      <c r="H9" s="6" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>61</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D10">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="E10">
         <v>5</v>
@@ -798,22 +1395,22 @@
       <c r="G10">
         <v>-1</v>
       </c>
-      <c r="H10" s="7" t="s">
-        <v>42</v>
+      <c r="H10" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>90</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>30</v>
+      <c r="B11" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D11">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="E11">
         <v>5</v>
@@ -824,19 +1421,19 @@
       <c r="G11">
         <v>-1</v>
       </c>
-      <c r="H11" s="7" t="s">
-        <v>32</v>
+      <c r="H11" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>140</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D12">
         <v>1000</v>
@@ -850,19 +1447,19 @@
       <c r="G12">
         <v>-1</v>
       </c>
-      <c r="H12" s="7" t="s">
-        <v>35</v>
+      <c r="H12" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>141</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D13">
         <v>1000</v>
@@ -876,19 +1473,19 @@
       <c r="G13">
         <v>-1</v>
       </c>
-      <c r="H13" s="7" t="s">
-        <v>35</v>
+      <c r="H13" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>142</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D14">
         <v>2000</v>
@@ -902,14 +1499,13 @@
       <c r="G14">
         <v>-1</v>
       </c>
-      <c r="H14" s="7" t="s">
-        <v>36</v>
+      <c r="H14" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
 </worksheet>
 </file>
--- a/jyx2/Assets/Mods/SAMPLE/Configs/战斗.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/战斗.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jynew\jyx2\Assets\Mods\SAMPLE\Configs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="16200" windowHeight="25005"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="25005"/>
   </bookViews>
   <sheets>
     <sheet name="战斗数据" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
   <si>
     <t>Jyx2Configs.Jyx2ConfigBattle</t>
   </si>
@@ -108,7 +113,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>4</t>
     </r>
@@ -117,7 +122,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>1,42</t>
     </r>
@@ -134,7 +139,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>6</t>
     </r>
@@ -143,7 +148,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>0</t>
     </r>
@@ -177,19 +182,33 @@
   </si>
   <si>
     <t>140,141,142,143,144,145,146,147,148,149</t>
+  </si>
+  <si>
+    <t>斗黑熊</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>160</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>05_Battle</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>斗巨型黑熊</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>161</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -212,355 +231,23 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -568,251 +255,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -823,66 +268,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="00000000"/>
+      <color rgb="FF000000"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1140,32 +541,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14159292035398" defaultRowHeight="12.75" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="13.4247787610619" customWidth="1"/>
-    <col min="6" max="6" width="9.14159292035398" customWidth="1"/>
-    <col min="7" max="7" width="10.5663716814159" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" customWidth="1"/>
     <col min="8" max="8" width="91" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1191,7 +592,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -1217,7 +618,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>10</v>
       </c>
@@ -1243,7 +644,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>20</v>
       </c>
@@ -1269,7 +670,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>30</v>
       </c>
@@ -1295,7 +696,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>40</v>
       </c>
@@ -1321,7 +722,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>41</v>
       </c>
@@ -1347,7 +748,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>60</v>
       </c>
@@ -1373,7 +774,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>61</v>
       </c>
@@ -1399,7 +800,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>90</v>
       </c>
@@ -1425,7 +826,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>140</v>
       </c>
@@ -1451,7 +852,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>141</v>
       </c>
@@ -1477,7 +878,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>142</v>
       </c>
@@ -1503,9 +904,62 @@
         <v>42</v>
       </c>
     </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>160</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15">
+        <v>1000</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>-1</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>161</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16">
+        <v>2000</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>-1</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/jyx2/Assets/Mods/SAMPLE/Configs/战斗.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/战斗.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="战斗数据" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525" calcOnSave="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
   <si>
     <t>Jyx2Configs.Jyx2ConfigBattle</t>
   </si>
@@ -203,6 +203,18 @@
     <t>161</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>71,72</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_Battle</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>斗罂粟谷弟子</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -219,12 +231,14 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -547,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -802,16 +816,16 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="D11">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E11">
         <v>5</v>
@@ -823,21 +837,21 @@
         <v>-1</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>140</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" t="s">
-        <v>40</v>
+        <v>90</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="D12">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="E12">
         <v>5</v>
@@ -849,12 +863,12 @@
         <v>-1</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>39</v>
@@ -880,7 +894,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>39</v>
@@ -889,7 +903,7 @@
         <v>40</v>
       </c>
       <c r="D14">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E14">
         <v>5</v>
@@ -901,21 +915,21 @@
         <v>-1</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
       </c>
       <c r="D15">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="E15">
         <v>5</v>
@@ -927,32 +941,58 @@
         <v>-1</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>45</v>
       </c>
       <c r="D16">
+        <v>1000</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>-1</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>161</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17">
         <v>2000</v>
       </c>
-      <c r="E16">
-        <v>5</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>-1</v>
-      </c>
-      <c r="H16" s="6" t="s">
+      <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>-1</v>
+      </c>
+      <c r="H17" s="6" t="s">
         <v>47</v>
       </c>
     </row>

--- a/jyx2/Assets/Mods/SAMPLE/Configs/战斗.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/战斗.xlsx
@@ -564,7 +564,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -643,7 +643,7 @@
         <v>18</v>
       </c>
       <c r="D4">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E4">
         <v>5</v>
@@ -747,7 +747,7 @@
         <v>26</v>
       </c>
       <c r="D8">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="E8">
         <v>5</v>
@@ -851,7 +851,7 @@
         <v>37</v>
       </c>
       <c r="D12">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E12">
         <v>5</v>
@@ -955,7 +955,7 @@
         <v>45</v>
       </c>
       <c r="D16">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="E16">
         <v>5</v>
@@ -999,7 +999,7 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/jyx2/Assets/Mods/SAMPLE/Configs/战斗.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/战斗.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="战斗数据" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
   <si>
     <t>Jyx2Configs.Jyx2ConfigBattle</t>
   </si>
@@ -208,11 +208,79 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>斗罂粟谷弟子</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>斗毒蛇</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>斗毒蛇</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>180,181</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>182,183,184</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>02_Battle</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>00_Battle</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>斗罂粟谷弟子</t>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_Battle</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_Battle</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -561,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -744,7 +812,7 @@
         <v>28</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="D8">
         <v>2000</v>
@@ -819,10 +887,10 @@
         <v>70</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D11">
         <v>1000</v>
@@ -994,6 +1062,58 @@
       </c>
       <c r="H17" s="6" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>180</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18">
+        <v>1000</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>-1</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>181</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19">
+        <v>1500</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>-1</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/jyx2/Assets/Mods/SAMPLE/Configs/战斗.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/战斗.xlsx
@@ -134,33 +134,10 @@
     <t>03_Battle</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>0</t>
-    </r>
-  </si>
-  <si>
     <t>最终一战</t>
   </si>
   <si>
     <t>06_Battle</t>
-  </si>
-  <si>
-    <t>61</t>
   </si>
   <si>
     <t>斗牛不三</t>
@@ -281,6 +258,14 @@
       </rPr>
       <t>_Battle</t>
     </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>61,610,611,612,613,614,615,616,617,618,619</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>60,62,63,64,65,66,67,68,69</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -632,7 +617,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -812,7 +797,7 @@
         <v>28</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D8">
         <v>2000</v>
@@ -841,7 +826,7 @@
         <v>31</v>
       </c>
       <c r="D9">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="E9">
         <v>5</v>
@@ -853,7 +838,7 @@
         <v>-1</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -861,10 +846,10 @@
         <v>61</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="D10">
         <v>3000</v>
@@ -879,7 +864,7 @@
         <v>-1</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -887,10 +872,10 @@
         <v>70</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D11">
         <v>1000</v>
@@ -905,7 +890,7 @@
         <v>-1</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -913,10 +898,10 @@
         <v>90</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D12">
         <v>1000</v>
@@ -931,7 +916,7 @@
         <v>-1</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -939,10 +924,10 @@
         <v>140</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D13">
         <v>1000</v>
@@ -957,7 +942,7 @@
         <v>-1</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -965,10 +950,10 @@
         <v>141</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D14">
         <v>1000</v>
@@ -983,7 +968,7 @@
         <v>-1</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -991,10 +976,10 @@
         <v>142</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D15">
         <v>2000</v>
@@ -1009,7 +994,7 @@
         <v>-1</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -1017,10 +1002,10 @@
         <v>160</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="D16">
         <v>1500</v>
@@ -1035,7 +1020,7 @@
         <v>-1</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -1043,10 +1028,10 @@
         <v>161</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D17">
         <v>2000</v>
@@ -1061,7 +1046,7 @@
         <v>-1</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1069,10 +1054,10 @@
         <v>180</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D18">
         <v>1000</v>
@@ -1087,7 +1072,7 @@
         <v>-1</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1095,10 +1080,10 @@
         <v>181</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D19">
         <v>1500</v>
@@ -1113,7 +1098,7 @@
         <v>-1</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/jyx2/Assets/Mods/SAMPLE/Configs/战斗.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/战斗.xlsx
@@ -209,10 +209,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>00_Battle</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>0</t>
     </r>
@@ -266,6 +262,10 @@
   </si>
   <si>
     <t>60,62,63,64,65,66,67,68,69</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>08_Battle</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -617,7 +617,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -838,7 +838,7 @@
         <v>-1</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -864,7 +864,7 @@
         <v>-1</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -875,7 +875,7 @@
         <v>47</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D11">
         <v>1000</v>
@@ -1057,7 +1057,7 @@
         <v>48</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18">
         <v>1000</v>
@@ -1083,7 +1083,7 @@
         <v>49</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D19">
         <v>1500</v>

--- a/jyx2/Assets/Mods/SAMPLE/Configs/战斗.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/战斗.xlsx
@@ -84,9 +84,6 @@
     <t>斗刘灯剑</t>
   </si>
   <si>
-    <t>20</t>
-  </si>
-  <si>
     <t>斗寿眉大师</t>
   </si>
   <si>
@@ -266,6 +263,10 @@
   </si>
   <si>
     <t>08_Battle</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -617,7 +618,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -699,13 +700,13 @@
         <v>1000</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>19</v>
@@ -725,7 +726,7 @@
         <v>1500</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="F5">
         <v>-1</v>
@@ -733,8 +734,8 @@
       <c r="G5">
         <v>0</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>21</v>
+      <c r="H5" s="6" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -742,16 +743,16 @@
         <v>30</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="D6">
         <v>2000</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -760,7 +761,7 @@
         <v>-1</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -768,16 +769,16 @@
         <v>40</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="D7">
         <v>1500</v>
       </c>
       <c r="E7">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -786,7 +787,7 @@
         <v>-1</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -794,16 +795,16 @@
         <v>41</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D8">
         <v>2000</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -812,7 +813,7 @@
         <v>-1</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -820,16 +821,16 @@
         <v>60</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="D9">
         <v>3000</v>
       </c>
       <c r="E9">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -838,7 +839,7 @@
         <v>-1</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -846,16 +847,16 @@
         <v>61</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="D10">
         <v>3000</v>
       </c>
       <c r="E10">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -864,7 +865,7 @@
         <v>-1</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -872,16 +873,16 @@
         <v>70</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D11">
         <v>1000</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -890,7 +891,7 @@
         <v>-1</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -898,16 +899,16 @@
         <v>90</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="D12">
         <v>1000</v>
       </c>
       <c r="E12">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -916,7 +917,7 @@
         <v>-1</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -924,16 +925,16 @@
         <v>140</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
         <v>37</v>
-      </c>
-      <c r="C13" t="s">
-        <v>38</v>
       </c>
       <c r="D13">
         <v>1000</v>
       </c>
       <c r="E13">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -942,7 +943,7 @@
         <v>-1</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -950,16 +951,16 @@
         <v>141</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
         <v>37</v>
-      </c>
-      <c r="C14" t="s">
-        <v>38</v>
       </c>
       <c r="D14">
         <v>1000</v>
       </c>
       <c r="E14">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -968,7 +969,7 @@
         <v>-1</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -976,16 +977,16 @@
         <v>142</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" t="s">
         <v>37</v>
-      </c>
-      <c r="C15" t="s">
-        <v>38</v>
       </c>
       <c r="D15">
         <v>2000</v>
       </c>
       <c r="E15">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -994,7 +995,7 @@
         <v>-1</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -1002,16 +1003,16 @@
         <v>160</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D16">
         <v>1500</v>
       </c>
       <c r="E16">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1020,7 +1021,7 @@
         <v>-1</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -1028,16 +1029,16 @@
         <v>161</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D17">
         <v>2000</v>
       </c>
       <c r="E17">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1046,7 +1047,7 @@
         <v>-1</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1054,16 +1055,16 @@
         <v>180</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18">
         <v>1000</v>
       </c>
       <c r="E18">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1072,7 +1073,7 @@
         <v>-1</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1080,16 +1081,16 @@
         <v>181</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D19">
         <v>1500</v>
       </c>
       <c r="E19">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1098,7 +1099,7 @@
         <v>-1</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/jyx2/Assets/Mods/SAMPLE/Configs/战斗.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/战斗.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="62">
   <si>
     <t>Jyx2Configs.Jyx2ConfigBattle</t>
   </si>
@@ -267,6 +267,22 @@
   </si>
   <si>
     <t>20</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>162</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>163</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>164</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>165</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -615,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1029,13 +1045,13 @@
         <v>161</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>42</v>
       </c>
       <c r="D17">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="E17">
         <v>22</v>
@@ -1052,16 +1068,16 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D18">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="E18">
         <v>22</v>
@@ -1073,18 +1089,18 @@
         <v>-1</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D19">
         <v>1500</v>
@@ -1099,6 +1115,110 @@
         <v>-1</v>
       </c>
       <c r="H19" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>164</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20">
+        <v>1500</v>
+      </c>
+      <c r="E20">
+        <v>22</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>-1</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>165</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21">
+        <v>2000</v>
+      </c>
+      <c r="E21">
+        <v>22</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>-1</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>180</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22">
+        <v>1000</v>
+      </c>
+      <c r="E22">
+        <v>22</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>-1</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>181</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23">
+        <v>1500</v>
+      </c>
+      <c r="E23">
+        <v>22</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>-1</v>
+      </c>
+      <c r="H23" s="6" t="s">
         <v>50</v>
       </c>
     </row>

--- a/jyx2/Assets/Mods/SAMPLE/Configs/战斗.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/战斗.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="64">
   <si>
     <t>Jyx2Configs.Jyx2ConfigBattle</t>
   </si>
@@ -85,9 +85,6 @@
   </si>
   <si>
     <t>斗寿眉大师</t>
-  </si>
-  <si>
-    <t>04_Battle</t>
   </si>
   <si>
     <t>31</t>
@@ -283,6 +280,18 @@
   </si>
   <si>
     <t>165</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>斗虚寂</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>04_Battle</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>30</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -631,10 +640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD21"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -751,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -762,7 +771,7 @@
         <v>21</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="D6">
         <v>2000</v>
@@ -777,50 +786,50 @@
         <v>-1</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="D7">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="E7">
         <v>23</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G7">
-        <v>-1</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>26</v>
+        <v>0</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="D8">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="E8">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -828,25 +837,25 @@
       <c r="G8">
         <v>-1</v>
       </c>
-      <c r="H8" s="6" t="s">
-        <v>28</v>
+      <c r="H8" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D9">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="E9">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -855,24 +864,24 @@
         <v>-1</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D10">
         <v>3000</v>
       </c>
       <c r="E10">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -886,19 +895,19 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="D11">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E11">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -907,18 +916,18 @@
         <v>-1</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="D12">
         <v>1000</v>
@@ -933,24 +942,24 @@
         <v>-1</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>140</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" t="s">
-        <v>37</v>
+        <v>90</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="D13">
         <v>1000</v>
       </c>
       <c r="E13">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -959,18 +968,18 @@
         <v>-1</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
         <v>36</v>
-      </c>
-      <c r="C14" t="s">
-        <v>37</v>
       </c>
       <c r="D14">
         <v>1000</v>
@@ -985,21 +994,21 @@
         <v>-1</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
         <v>36</v>
       </c>
-      <c r="C15" t="s">
-        <v>37</v>
-      </c>
       <c r="D15">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E15">
         <v>22</v>
@@ -1011,21 +1020,21 @@
         <v>-1</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>42</v>
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
       </c>
       <c r="D16">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E16">
         <v>22</v>
@@ -1037,18 +1046,18 @@
         <v>-1</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D17">
         <v>1500</v>
@@ -1063,18 +1072,18 @@
         <v>-1</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D18">
         <v>1500</v>
@@ -1089,18 +1098,18 @@
         <v>-1</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D19">
         <v>1500</v>
@@ -1115,18 +1124,18 @@
         <v>-1</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D20">
         <v>1500</v>
@@ -1141,21 +1150,21 @@
         <v>-1</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D21">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="E21">
         <v>22</v>
@@ -1167,21 +1176,21 @@
         <v>-1</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D22">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="E22">
         <v>22</v>
@@ -1193,21 +1202,21 @@
         <v>-1</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D23">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="E23">
         <v>22</v>
@@ -1219,7 +1228,33 @@
         <v>-1</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>181</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24">
+        <v>1500</v>
+      </c>
+      <c r="E24">
+        <v>22</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>-1</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/jyx2/Assets/Mods/SAMPLE/Configs/战斗.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/战斗.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jynew\jyx2\Assets\Mods\SAMPLE\Configs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="25005"/>
+    <workbookView windowWidth="12885" windowHeight="8130"/>
   </bookViews>
   <sheets>
     <sheet name="战斗数据" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="63">
   <si>
     <t>Jyx2Configs.Jyx2ConfigBattle</t>
   </si>
@@ -84,10 +79,31 @@
     <t>斗刘灯剑</t>
   </si>
   <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>斗童岿然</t>
+  </si>
+  <si>
+    <t>0,90</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
     <t>斗寿眉大师</t>
   </si>
   <si>
+    <t>04_Battle</t>
+  </si>
+  <si>
     <t>31</t>
+  </si>
+  <si>
+    <t>斗虚寂</t>
+  </si>
+  <si>
+    <t>30</t>
   </si>
   <si>
     <t>斗萨擎苍</t>
@@ -107,7 +123,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>4</t>
     </r>
@@ -116,7 +132,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>1,42</t>
     </r>
@@ -128,12 +144,27 @@
     <t>03_Battle</t>
   </si>
   <si>
+    <t>60,62,63,64,65,66,67,68,69</t>
+  </si>
+  <si>
     <t>最终一战</t>
   </si>
   <si>
     <t>06_Battle</t>
   </si>
   <si>
+    <t>61,610,611,612,613,614,615,616,617,618,619</t>
+  </si>
+  <si>
+    <t>斗罂粟谷弟子</t>
+  </si>
+  <si>
+    <t>08_Battle</t>
+  </si>
+  <si>
+    <t>71,72</t>
+  </si>
+  <si>
     <t>斗牛不三</t>
   </si>
   <si>
@@ -156,54 +187,39 @@
   </si>
   <si>
     <t>斗黑熊</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>160</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>05_Battle</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>164</t>
   </si>
   <si>
     <t>斗巨型黑熊</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>161</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>71,72</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>斗罂粟谷弟子</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>165</t>
   </si>
   <si>
     <t>斗毒蛇</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>斗毒蛇</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>180,181</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>182,183,184</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>02_Battle</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>0</t>
     </r>
     <r>
@@ -211,7 +227,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>7</t>
     </r>
@@ -220,86 +236,29 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>_Battle</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>_Battle</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>61,610,611,612,613,614,615,616,617,618,619</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>60,62,63,64,65,66,67,68,69</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>08_Battle</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>162</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>163</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>164</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>165</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>斗虚寂</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>04_Battle</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>30</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>180,181</t>
+  </si>
+  <si>
+    <t>182,183,184</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -310,37 +269,361 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -348,9 +631,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -358,25 +883,69 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FF000000"/>
+      <color rgb="00000000"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -634,32 +1203,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.14159292035398" defaultRowHeight="12.75" outlineLevelCol="7"/>
   <cols>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.4247787610619" customWidth="1"/>
+    <col min="6" max="6" width="9.14159292035398" customWidth="1"/>
+    <col min="7" max="7" width="10.5663716814159" customWidth="1"/>
     <col min="8" max="8" width="91" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -685,7 +1254,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -711,7 +1280,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>10</v>
       </c>
@@ -737,7 +1306,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>20</v>
       </c>
@@ -759,201 +1328,201 @@
       <c r="G5">
         <v>0</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H5" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>62</v>
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
       </c>
       <c r="D6">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="E6">
         <v>23</v>
       </c>
       <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>-1</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>62</v>
+        <v>25</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="D7">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="E7">
         <v>23</v>
       </c>
       <c r="F7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>24</v>
+        <v>28</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="D8">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="E8">
         <v>23</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G8">
-        <v>-1</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
+        <v>40</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9">
+        <v>1500</v>
+      </c>
+      <c r="E9">
+        <v>23</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>-1</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
         <v>41</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9">
+      <c r="B10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10">
         <v>2000</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>21</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>-1</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>-1</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
         <v>60</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10">
-        <v>3000</v>
-      </c>
-      <c r="E10">
-        <v>22</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>-1</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>61</v>
-      </c>
       <c r="B11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="D11">
         <v>3000</v>
       </c>
       <c r="E11">
+        <v>22</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>-1</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>61</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12">
+        <v>3000</v>
+      </c>
+      <c r="E12">
         <v>23</v>
       </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>-1</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>-1</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
         <v>70</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12">
-        <v>1000</v>
-      </c>
-      <c r="E12">
-        <v>21</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>-1</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>90</v>
-      </c>
       <c r="B13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>33</v>
+        <v>41</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="D13">
         <v>1000</v>
@@ -967,25 +1536,25 @@
       <c r="G13">
         <v>-1</v>
       </c>
-      <c r="H13" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H13" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14">
-        <v>140</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" t="s">
-        <v>36</v>
+        <v>90</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="D14">
         <v>1000</v>
       </c>
       <c r="E14">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -993,19 +1562,19 @@
       <c r="G14">
         <v>-1</v>
       </c>
-      <c r="H14" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H14" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D15">
         <v>1000</v>
@@ -1019,22 +1588,22 @@
       <c r="G15">
         <v>-1</v>
       </c>
-      <c r="H15" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H15" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D16">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E16">
         <v>22</v>
@@ -1045,22 +1614,22 @@
       <c r="G16">
         <v>-1</v>
       </c>
-      <c r="H16" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H16" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>41</v>
+        <v>47</v>
+      </c>
+      <c r="C17" t="s">
+        <v>48</v>
       </c>
       <c r="D17">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E17">
         <v>22</v>
@@ -1071,19 +1640,19 @@
       <c r="G17">
         <v>-1</v>
       </c>
-      <c r="H17" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H17" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>41</v>
+        <v>51</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="D18">
         <v>1500</v>
@@ -1097,19 +1666,19 @@
       <c r="G18">
         <v>-1</v>
       </c>
-      <c r="H18" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H18" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>41</v>
+        <v>51</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="D19">
         <v>1500</v>
@@ -1123,19 +1692,19 @@
       <c r="G19">
         <v>-1</v>
       </c>
-      <c r="H19" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H19" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>41</v>
+        <v>51</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="D20">
         <v>1500</v>
@@ -1149,19 +1718,19 @@
       <c r="G20">
         <v>-1</v>
       </c>
-      <c r="H20" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H20" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>41</v>
+        <v>51</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="D21">
         <v>1500</v>
@@ -1175,22 +1744,22 @@
       <c r="G21">
         <v>-1</v>
       </c>
-      <c r="H21" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H21" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>41</v>
+        <v>51</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="D22">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="E22">
         <v>22</v>
@@ -1201,22 +1770,22 @@
       <c r="G22">
         <v>-1</v>
       </c>
-      <c r="H22" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H22" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>51</v>
+        <v>57</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="D23">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="E23">
         <v>22</v>
@@ -1227,22 +1796,22 @@
       <c r="G23">
         <v>-1</v>
       </c>
-      <c r="H23" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H23" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>52</v>
+        <v>59</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="D24">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="E24">
         <v>22</v>
@@ -1253,14 +1822,39 @@
       <c r="G24">
         <v>-1</v>
       </c>
-      <c r="H24" s="6" t="s">
-        <v>49</v>
+      <c r="H24" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25">
+        <v>181</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25">
+        <v>1500</v>
+      </c>
+      <c r="E25">
+        <v>22</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>-1</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
 </worksheet>
 </file>
--- a/jyx2/Assets/Mods/SAMPLE/Configs/战斗.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/战斗.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jynew\jyx2\Assets\Mods\SAMPLE\Configs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="12885" windowHeight="8130"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12885" windowHeight="8130"/>
   </bookViews>
   <sheets>
     <sheet name="战斗数据" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="73">
   <si>
     <t>Jyx2Configs.Jyx2ConfigBattle</t>
   </si>
@@ -123,7 +128,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>4</t>
     </r>
@@ -132,7 +137,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>1,42</t>
     </r>
@@ -218,7 +223,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>0</t>
     </r>
@@ -227,7 +232,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>7</t>
     </r>
@@ -236,7 +241,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_Battle</t>
     </r>
@@ -246,19 +251,124 @@
   </si>
   <si>
     <t>182,183,184</t>
+  </si>
+  <si>
+    <t>比武招亲</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>90</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>66</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>71</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_Battle</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_Battle</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>09_Battle</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_Battle</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>22</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>111</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -278,352 +388,33 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="10"/>
+      <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -631,253 +422,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -885,67 +434,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="00000000"/>
+      <color rgb="FF000000"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1203,32 +711,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14159292035398" defaultRowHeight="12.75" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="13.4247787610619" customWidth="1"/>
-    <col min="6" max="6" width="9.14159292035398" customWidth="1"/>
-    <col min="7" max="7" width="10.5663716814159" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" customWidth="1"/>
     <col min="8" max="8" width="91" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1254,7 +762,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -1280,7 +788,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>10</v>
       </c>
@@ -1306,7 +814,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>20</v>
       </c>
@@ -1332,7 +840,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>21</v>
       </c>
@@ -1358,7 +866,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>30</v>
       </c>
@@ -1384,7 +892,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>31</v>
       </c>
@@ -1410,7 +918,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>40</v>
       </c>
@@ -1436,7 +944,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>41</v>
       </c>
@@ -1462,7 +970,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>60</v>
       </c>
@@ -1488,7 +996,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>61</v>
       </c>
@@ -1514,7 +1022,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>70</v>
       </c>
@@ -1540,7 +1048,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>90</v>
       </c>
@@ -1566,7 +1074,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>140</v>
       </c>
@@ -1592,7 +1100,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>141</v>
       </c>
@@ -1618,7 +1126,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>142</v>
       </c>
@@ -1644,7 +1152,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>160</v>
       </c>
@@ -1670,7 +1178,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>161</v>
       </c>
@@ -1696,7 +1204,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>162</v>
       </c>
@@ -1722,7 +1230,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>163</v>
       </c>
@@ -1748,7 +1256,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>164</v>
       </c>
@@ -1774,7 +1282,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>165</v>
       </c>
@@ -1800,7 +1308,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>180</v>
       </c>
@@ -1826,7 +1334,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>181</v>
       </c>
@@ -1852,9 +1360,140 @@
         <v>62</v>
       </c>
     </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>190</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26">
+        <v>2000</v>
+      </c>
+      <c r="E26">
+        <v>23</v>
+      </c>
+      <c r="F26">
+        <v>-1</v>
+      </c>
+      <c r="G26">
+        <v>11</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>191</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27">
+        <v>2000</v>
+      </c>
+      <c r="E27">
+        <v>23</v>
+      </c>
+      <c r="F27">
+        <v>-1</v>
+      </c>
+      <c r="G27">
+        <v>11</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>192</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28">
+        <v>2000</v>
+      </c>
+      <c r="E28">
+        <v>23</v>
+      </c>
+      <c r="F28">
+        <v>-1</v>
+      </c>
+      <c r="G28">
+        <v>11</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>193</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29">
+        <v>2000</v>
+      </c>
+      <c r="E29">
+        <v>23</v>
+      </c>
+      <c r="F29">
+        <v>-1</v>
+      </c>
+      <c r="G29">
+        <v>11</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>194</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30">
+        <v>2000</v>
+      </c>
+      <c r="E30">
+        <v>23</v>
+      </c>
+      <c r="F30">
+        <v>-1</v>
+      </c>
+      <c r="G30">
+        <v>11</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/jyx2/Assets/Mods/SAMPLE/Configs/战斗.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/战斗.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jynew\jyx2\Assets\Mods\SAMPLE\Configs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12885" windowHeight="8130"/>
+    <workbookView windowHeight="17940"/>
   </bookViews>
   <sheets>
     <sheet name="战斗数据" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="71">
   <si>
     <t>Jyx2Configs.Jyx2ConfigBattle</t>
   </si>
@@ -128,7 +123,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>4</t>
     </r>
@@ -137,7 +132,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>1,42</t>
     </r>
@@ -161,7 +156,7 @@
     <t>61,610,611,612,613,614,615,616,617,618,619</t>
   </si>
   <si>
-    <t>斗罂粟谷弟子</t>
+    <t>斗曼陀谷弟子</t>
   </si>
   <si>
     <t>08_Battle</t>
@@ -223,7 +218,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>0</t>
     </r>
@@ -232,7 +227,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>7</t>
     </r>
@@ -241,7 +236,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>_Battle</t>
     </r>
@@ -254,33 +249,15 @@
   </si>
   <si>
     <t>比武招亲</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
-      <t>90</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>66</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>71</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>0</t>
     </r>
     <r>
@@ -288,7 +265,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>9</t>
     </r>
@@ -297,78 +274,58 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>_Battle</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>0</t>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
-      <t>9</t>
+      <t>90</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>_Battle</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>66</t>
   </si>
   <si>
     <t>09_Battle</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>_Battle</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>111</t>
   </si>
   <si>
     <t>22</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>111</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -390,31 +347,362 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -422,9 +710,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -434,26 +964,70 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FF000000"/>
+      <color rgb="00000000"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -711,32 +1285,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="7"/>
   <cols>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.6285714285714" customWidth="1"/>
+    <col min="3" max="3" width="13.4285714285714" customWidth="1"/>
+    <col min="6" max="6" width="9.14285714285714" customWidth="1"/>
+    <col min="7" max="7" width="10.5714285714286" customWidth="1"/>
     <col min="8" max="8" width="91" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -762,7 +1337,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -788,7 +1363,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>10</v>
       </c>
@@ -814,7 +1389,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>20</v>
       </c>
@@ -840,7 +1415,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>21</v>
       </c>
@@ -866,7 +1441,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>30</v>
       </c>
@@ -892,7 +1467,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>31</v>
       </c>
@@ -918,7 +1493,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>40</v>
       </c>
@@ -944,7 +1519,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>41</v>
       </c>
@@ -970,7 +1545,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>60</v>
       </c>
@@ -996,7 +1571,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>61</v>
       </c>
@@ -1022,7 +1597,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>70</v>
       </c>
@@ -1048,7 +1623,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>90</v>
       </c>
@@ -1074,7 +1649,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>140</v>
       </c>
@@ -1100,7 +1675,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>141</v>
       </c>
@@ -1126,7 +1701,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>142</v>
       </c>
@@ -1152,7 +1727,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>160</v>
       </c>
@@ -1178,7 +1753,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>161</v>
       </c>
@@ -1204,7 +1779,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>162</v>
       </c>
@@ -1230,7 +1805,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>163</v>
       </c>
@@ -1256,7 +1831,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>164</v>
       </c>
@@ -1282,7 +1857,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>165</v>
       </c>
@@ -1308,7 +1883,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>180</v>
       </c>
@@ -1334,7 +1909,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>181</v>
       </c>
@@ -1360,15 +1935,15 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>190</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="9" t="s">
-        <v>67</v>
+      <c r="C26" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="D26">
         <v>2000</v>
@@ -1382,19 +1957,19 @@
       <c r="G26">
         <v>11</v>
       </c>
-      <c r="H26" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H26" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>191</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="9" t="s">
-        <v>68</v>
+      <c r="C27" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="D27">
         <v>2000</v>
@@ -1408,19 +1983,19 @@
       <c r="G27">
         <v>11</v>
       </c>
-      <c r="H27" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H27" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28">
         <v>192</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="9" t="s">
-        <v>69</v>
+      <c r="C28" s="8" t="s">
+        <v>67</v>
       </c>
       <c r="D28">
         <v>2000</v>
@@ -1434,19 +2009,19 @@
       <c r="G28">
         <v>11</v>
       </c>
-      <c r="H28" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H28" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29">
         <v>193</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="9" t="s">
-        <v>70</v>
+      <c r="C29" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="D29">
         <v>2000</v>
@@ -1460,19 +2035,19 @@
       <c r="G29">
         <v>11</v>
       </c>
-      <c r="H29" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H29" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30">
         <v>194</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="9" t="s">
-        <v>67</v>
+      <c r="C30" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="D30">
         <v>2000</v>
@@ -1486,14 +2061,13 @@
       <c r="G30">
         <v>11</v>
       </c>
-      <c r="H30" s="8" t="s">
-        <v>71</v>
+      <c r="H30" s="9" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
 </worksheet>
 </file>